--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76FBF05-1DED-4CA6-9F5B-1C9C4B18F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D8D81-B39B-46FD-95B7-02BF12B11A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2310" windowWidth="23400" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="135" windowWidth="15135" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 체력 {0} 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +139,50 @@
   </si>
   <si>
     <t>ProjectileSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevilRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사방 등장 확률 {0}% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마방 등장 확률 {0}% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngelRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 하트 {0} 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPerCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유한 코인당 공격력 {0} 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소울 하트 {0} 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,22 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -489,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -522,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -533,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -555,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -566,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -577,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -599,10 +650,65 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D8D81-B39B-46FD-95B7-02BF12B11A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905288D-7453-4C1B-9B6C-7137C2D9DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36465" yWindow="135" windowWidth="15135" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="2355" windowWidth="15090" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlackHeart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,42 @@
   </si>
   <si>
     <t>소울 하트 {0} 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 {0} 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 {0}개 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 {0}개 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 {0}개 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Q39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,10 +682,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,10 +704,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -683,10 +715,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -705,10 +737,54 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/ItemOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905288D-7453-4C1B-9B6C-7137C2D9DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D191ADB2-2BE8-4825-926B-F3E65F6264E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2355" windowWidth="15090" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37800" yWindow="1395" windowWidth="13710" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
